--- a/server/temp/防伪码_产品信息表.xlsx
+++ b/server/temp/防伪码_产品信息表.xlsx
@@ -189,7 +189,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -219,7 +219,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>700000007RJXUL5RE</t>
+          <t>800000003S2KZ92VY</t>
         </is>
       </c>
       <c r="H2" s="2"/>

--- a/server/temp/防伪码_产品信息表.xlsx
+++ b/server/temp/防伪码_产品信息表.xlsx
@@ -189,7 +189,7 @@
     <row r="2">
       <c r="A2" s="2" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>9</t>
         </is>
       </c>
       <c r="B2" s="2" t="inlineStr">
@@ -219,7 +219,7 @@
       </c>
       <c r="G2" s="2" t="inlineStr">
         <is>
-          <t>800000003S2KZ92VY</t>
+          <t>90000000XJ0Z8GNCT</t>
         </is>
       </c>
       <c r="H2" s="2"/>
